--- a/differences_6.xlsx
+++ b/differences_6.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2310000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2090000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.137</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.171</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.114</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.145</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.164</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.04899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.116</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.115</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1880000000000001</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09899999999999998</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08200000000000002</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07500000000000007</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08300000000000002</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02699999999999997</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07899999999999996</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05099999999999993</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1140000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.106</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06700000000000006</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03399999999999997</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.004000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07700000000000007</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06500000000000006</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.07600000000000007</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009999999999999953</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04999999999999993</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04799999999999993</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.117</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05599999999999999</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.134</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.105</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.008999999999999952</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.09699999999999998</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07900000000000007</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02399999999999991</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.119</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08300000000000007</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.142</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05599999999999994</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06199999999999994</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.167</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.04600000000000004</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.06400000000000006</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07400000000000007</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.067</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07400000000000007</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02699999999999991</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07300000000000006</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08499999999999996</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.09700000000000009</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04299999999999993</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.138</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03699999999999998</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -4241,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -4578,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.04599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04800000000000004</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04899999999999993</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
